--- a/TestData/测试用例.xlsx
+++ b/TestData/测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="20490"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8820" windowWidth="20490"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -70,7 +70,7 @@
     <t>126邮箱登录</t>
   </si>
   <si>
-    <t>2019年3月13日 23时31分18秒</t>
+    <t>Y</t>
   </si>
   <si>
     <t>126邮箱新建联系人测试</t>
@@ -79,7 +79,7 @@
     <t>126邮箱新建联系人</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>2019年4月15日 22时35分34秒</t>
   </si>
   <si>
     <t>126邮箱发邮件测试</t>
@@ -317,6 +317,9 @@
     <t>126登录.png</t>
   </si>
   <si>
+    <t>2019年3月13日 23时31分18秒</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -332,7 +335,7 @@
     <t>homePage.addressBook</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分38秒</t>
+    <t>2019年4月15日 22时35分23秒</t>
   </si>
   <si>
     <t>单击新建联系人按钮</t>
@@ -344,7 +347,7 @@
     <t>addcontactsPage.createContactsBtn</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分39秒</t>
+    <t>2019年4月15日 22时35分24秒</t>
   </si>
   <si>
     <t>输入联系人姓名</t>
@@ -356,7 +359,7 @@
     <t>kongsh</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分40秒</t>
+    <t>2019年4月15日 22时35分25秒</t>
   </si>
   <si>
     <t>输入联系人邮箱</t>
@@ -368,7 +371,7 @@
     <t>1234@qq.com</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分41秒</t>
+    <t>2019年4月15日 22时35分26秒</t>
   </si>
   <si>
     <t>设置为星标联系人</t>
@@ -383,7 +386,7 @@
     <t>addcontactsPage.contactPersonMobile</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分42秒</t>
+    <t>2019年4月15日 22时35分27秒</t>
   </si>
   <si>
     <t>输入备注</t>
@@ -395,34 +398,31 @@
     <t>同学</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分43秒</t>
-  </si>
-  <si>
     <t>保存联系人</t>
   </si>
   <si>
     <t>addcontactsPage.saveContacePerson</t>
   </si>
   <si>
+    <t>2019年4月15日 22时35分28秒</t>
+  </si>
+  <si>
     <t>断言</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分44秒</t>
+    <t>2019年4月15日 22时35分29秒</t>
   </si>
   <si>
     <t>新建联系人.png</t>
   </si>
   <si>
-    <t>2019年4月15日 22时33分45秒</t>
+    <t>2019年4月15日 22时35分30秒</t>
   </si>
   <si>
     <t>关闭浏览器</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时33分48秒</t>
   </si>
   <si>
     <t>单击写信按钮</t>
@@ -584,31 +584,34 @@
     <t>退出浏览器</t>
   </si>
   <si>
-    <t>2019年4月15日 22时35分23秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分24秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分25秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分26秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分27秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分28秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分29秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分30秒</t>
-  </si>
-  <si>
-    <t>2019年4月15日 22时35分34秒</t>
+    <t>2019年7月29日 17时14分54秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分5秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分8秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分10秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分12秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分14秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分16秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分19秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分37秒</t>
+  </si>
+  <si>
+    <t>2019年7月29日 17时15分38秒</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,105 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -677,7 +778,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -691,108 +793,9 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,108 +817,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -928,37 +829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,6 +865,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -988,7 +919,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,6 +1035,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1051,42 +1087,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,9 +1109,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1123,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -1132,131 +1135,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="5" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="22" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="16" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,7 +1601,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="6"/>
@@ -1682,12 +1685,12 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1702,12 +1705,12 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2310,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+        <v>171</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s"/>
+      <c r="I2" s="2" t="s"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
@@ -2331,13 +2334,13 @@
         <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+        <v>172</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s"/>
+      <c r="I3" s="2" t="s"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
@@ -2352,13 +2355,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+        <v>173</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s"/>
+      <c r="I4" s="2" t="s"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
@@ -2375,13 +2378,13 @@
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+        <v>174</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s"/>
+      <c r="I5" s="2" t="s"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
@@ -2396,13 +2399,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+        <v>175</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s"/>
+      <c r="I6" s="2" t="s"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
@@ -2421,13 +2424,13 @@
         <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+        <v>176</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s"/>
+      <c r="I7" s="2" t="s"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
@@ -2446,13 +2449,13 @@
         <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
+        <v>177</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s"/>
+      <c r="I8" s="2" t="s"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
@@ -2469,13 +2472,13 @@
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
+        <v>178</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s"/>
+      <c r="I9" s="2" t="s"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
@@ -2492,13 +2495,13 @@
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+        <v>179</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s"/>
+      <c r="I10" s="2" t="s"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
@@ -2513,13 +2516,13 @@
         <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
+        <v>180</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s"/>
+      <c r="I11" s="2" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2581,187 +2584,187 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s"/>
-      <c r="G2" s="2" t="s"/>
-      <c r="H2" s="2" t="s"/>
-      <c r="I2" s="2" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s"/>
-      <c r="I3" s="2" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s"/>
-      <c r="I4" s="2" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s"/>
-      <c r="I5" s="2" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s"/>
-      <c r="I6" s="2" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s"/>
-      <c r="I7" s="2" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12345678909</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s"/>
-      <c r="I8" s="2" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s"/>
-      <c r="I9" s="2" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
@@ -2771,24 +2774,24 @@
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s"/>
-      <c r="I10" s="2" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>52</v>
@@ -2796,16 +2799,16 @@
       <c r="C11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s"/>
-      <c r="I11" s="2" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
@@ -2817,20 +2820,20 @@
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s"/>
-      <c r="I12" s="2" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>54</v>
@@ -2839,13 +2842,13 @@
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s"/>
-      <c r="I13" s="2" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2907,13 +2910,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
@@ -3162,7 +3165,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>52</v>
